--- a/docment/テスト項目関連/win7_Internet Explorer11.xlsx
+++ b/docment/テスト項目関連/win7_Internet Explorer11.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="456" windowWidth="22056" windowHeight="8604" tabRatio="603" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="516" windowWidth="22056" windowHeight="8544" tabRatio="603" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="25" r:id="rId1"/>
@@ -2539,6 +2539,21 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2548,34 +2563,40 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2584,28 +2605,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2617,12 +2629,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2643,12 +2649,6 @@
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3240,15 +3240,15 @@
       <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="92" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="92"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
       <c r="I2" s="47" t="s">
         <v>52</v>
       </c>
@@ -3267,13 +3267,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="51"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
       <c r="I3" s="53"/>
       <c r="J3" s="54"/>
       <c r="K3" s="54"/>
@@ -3286,13 +3286,13 @@
       <c r="A4" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
       <c r="I4" s="20"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -3300,15 +3300,15 @@
     </row>
     <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
       <c r="I5" s="61">
         <v>42754</v>
       </c>
@@ -3320,15 +3320,15 @@
     </row>
     <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
       <c r="I6" s="61">
         <v>42754</v>
       </c>
@@ -3340,16 +3340,16 @@
     </row>
     <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="97">
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="62">
         <v>42754</v>
       </c>
       <c r="J7" s="2" t="s">
@@ -3360,15 +3360,15 @@
     </row>
     <row r="8" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
       <c r="I8" s="61">
         <v>42754</v>
       </c>
@@ -3380,15 +3380,15 @@
     </row>
     <row r="9" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
       <c r="I9" s="61">
         <v>42754</v>
       </c>
@@ -3400,15 +3400,15 @@
     </row>
     <row r="10" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
       <c r="I10" s="61">
         <v>42754</v>
       </c>
@@ -3420,15 +3420,15 @@
     </row>
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
       <c r="I11" s="61">
         <v>42754</v>
       </c>
@@ -3440,15 +3440,15 @@
     </row>
     <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="61">
         <v>42754</v>
       </c>
@@ -3460,15 +3460,15 @@
     </row>
     <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
       <c r="I13" s="61">
         <v>42754</v>
       </c>
@@ -3480,15 +3480,15 @@
     </row>
     <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
       <c r="I14" s="61">
         <v>42754</v>
       </c>
@@ -3500,15 +3500,15 @@
     </row>
     <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
       <c r="I15" s="61">
         <v>42754</v>
       </c>
@@ -3523,15 +3523,15 @@
       <c r="A17" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="78" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="82"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="80"/>
       <c r="I17" s="32" t="s">
         <v>52</v>
       </c>
@@ -3547,13 +3547,13 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="49"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="78"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="87"/>
       <c r="I18" s="33"/>
       <c r="J18" s="4"/>
       <c r="K18" s="6"/>
@@ -3563,13 +3563,13 @@
       <c r="A19" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="88"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="78"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="87"/>
       <c r="I19" s="34"/>
       <c r="J19" s="2"/>
       <c r="K19" s="6"/>
@@ -3577,15 +3577,15 @@
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
-      <c r="B20" s="79" t="s">
+      <c r="B20" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
       <c r="I20" s="61">
         <v>42754</v>
       </c>
@@ -3597,15 +3597,15 @@
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
-      <c r="B21" s="79" t="s">
+      <c r="B21" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
       <c r="I21" s="61">
         <v>42754</v>
       </c>
@@ -3617,15 +3617,15 @@
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
-      <c r="B22" s="79" t="s">
+      <c r="B22" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
       <c r="I22" s="61">
         <v>42754</v>
       </c>
@@ -3637,15 +3637,15 @@
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="79" t="s">
+      <c r="B23" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
       <c r="I23" s="61">
         <v>42754</v>
       </c>
@@ -3657,15 +3657,15 @@
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="79" t="s">
+      <c r="B24" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
       <c r="I24" s="61">
         <v>42754</v>
       </c>
@@ -3679,15 +3679,15 @@
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="79" t="s">
+      <c r="B25" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
       <c r="I25" s="61">
         <v>42754</v>
       </c>
@@ -3699,15 +3699,15 @@
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="79" t="s">
+      <c r="B26" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
       <c r="I26" s="61">
         <v>42754</v>
       </c>
@@ -3719,15 +3719,15 @@
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="79" t="s">
+      <c r="B27" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
       <c r="I27" s="61">
         <v>42754</v>
       </c>
@@ -3739,15 +3739,15 @@
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="79" t="s">
+      <c r="B28" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
       <c r="I28" s="61">
         <v>42754</v>
       </c>
@@ -3799,15 +3799,15 @@
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
-      <c r="B31" s="89" t="s">
+      <c r="B31" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="89"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
       <c r="I31" s="61">
         <v>42754</v>
       </c>
@@ -3821,15 +3821,15 @@
     </row>
     <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
-      <c r="B32" s="79" t="s">
+      <c r="B32" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
       <c r="I32" s="61">
         <v>42754</v>
       </c>
@@ -3841,15 +3841,15 @@
     </row>
     <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
-      <c r="B33" s="79" t="s">
+      <c r="B33" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
       <c r="I33" s="61">
         <v>42754</v>
       </c>
@@ -3861,15 +3861,15 @@
     </row>
     <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
-      <c r="B34" s="79" t="s">
+      <c r="B34" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
       <c r="I34" s="61">
         <v>42754</v>
       </c>
@@ -3881,15 +3881,15 @@
     </row>
     <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
-      <c r="B35" s="79" t="s">
+      <c r="B35" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="79"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
       <c r="I35" s="61">
         <v>42754</v>
       </c>
@@ -3901,15 +3901,15 @@
     </row>
     <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
-      <c r="B36" s="79" t="s">
+      <c r="B36" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="79"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
       <c r="I36" s="61">
         <v>42754</v>
       </c>
@@ -3921,15 +3921,15 @@
     </row>
     <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
-      <c r="B37" s="79" t="s">
+      <c r="B37" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="77"/>
       <c r="I37" s="61">
         <v>42754</v>
       </c>
@@ -3941,15 +3941,15 @@
     </row>
     <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
-      <c r="B38" s="79" t="s">
+      <c r="B38" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="77"/>
       <c r="I38" s="61">
         <v>42754</v>
       </c>
@@ -3961,15 +3961,15 @@
     </row>
     <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
-      <c r="B39" s="79" t="s">
+      <c r="B39" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="77"/>
       <c r="I39" s="61">
         <v>42754</v>
       </c>
@@ -3981,15 +3981,15 @@
     </row>
     <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
-      <c r="B40" s="79" t="s">
+      <c r="B40" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
       <c r="I40" s="61">
         <v>42754</v>
       </c>
@@ -4001,15 +4001,15 @@
     </row>
     <row r="41" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
-      <c r="B41" s="79" t="s">
+      <c r="B41" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="79"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
       <c r="I41" s="61">
         <v>42754</v>
       </c>
@@ -4021,6 +4021,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="B40:H40"/>
     <mergeCell ref="B41:H41"/>
@@ -4037,29 +4060,6 @@
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -4077,8 +4077,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4094,13 +4094,13 @@
       <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="68"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="71"/>
       <c r="I2" s="15" t="s">
         <v>54</v>
       </c>
@@ -4116,13 +4116,13 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="49"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
       <c r="I3" s="16"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -4152,15 +4152,15 @@
     </row>
     <row r="5" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="72"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="66"/>
       <c r="I5" s="61">
         <v>42754</v>
       </c>
@@ -4172,15 +4172,15 @@
     </row>
     <row r="6" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="72"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="66"/>
       <c r="I6" s="61">
         <v>42754</v>
       </c>
@@ -4192,15 +4192,15 @@
     </row>
     <row r="7" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="72"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="66"/>
       <c r="I7" s="61">
         <v>42754</v>
       </c>
@@ -4212,15 +4212,15 @@
     </row>
     <row r="8" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="72"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
       <c r="I8" s="61">
         <v>42754</v>
       </c>
@@ -4232,15 +4232,15 @@
     </row>
     <row r="9" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="72"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="66"/>
       <c r="I9" s="61">
         <v>42754</v>
       </c>
@@ -4252,15 +4252,15 @@
     </row>
     <row r="10" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="72"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="66"/>
       <c r="I10" s="61">
         <v>42754</v>
       </c>
@@ -4272,15 +4272,15 @@
     </row>
     <row r="11" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="72"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="66"/>
       <c r="I11" s="61">
         <v>42754</v>
       </c>
@@ -4294,15 +4294,15 @@
     </row>
     <row r="12" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="72"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="66"/>
       <c r="I12" s="61">
         <v>42754</v>
       </c>
@@ -4332,13 +4332,13 @@
       <c r="A14" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
       <c r="I14" s="12"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -4346,15 +4346,15 @@
     </row>
     <row r="15" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="72"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="66"/>
       <c r="I15" s="61">
         <v>42754</v>
       </c>
@@ -4366,15 +4366,15 @@
     </row>
     <row r="16" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="72"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="66"/>
       <c r="I16" s="61">
         <v>42754</v>
       </c>
@@ -4386,15 +4386,15 @@
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="72"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="66"/>
       <c r="I17" s="61">
         <v>42754</v>
       </c>
@@ -4422,13 +4422,13 @@
       <c r="A19" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
       <c r="I19" s="12"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -4436,15 +4436,15 @@
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="64"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="69"/>
       <c r="I20" s="61">
         <v>42754</v>
       </c>
@@ -4456,15 +4456,15 @@
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="72"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="66"/>
       <c r="I21" s="61">
         <v>42754</v>
       </c>
@@ -4476,15 +4476,15 @@
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="64"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="69"/>
       <c r="I22" s="61">
         <v>42754</v>
       </c>
@@ -4496,15 +4496,15 @@
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="64"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="69"/>
       <c r="I23" s="61">
         <v>42754</v>
       </c>
@@ -4516,13 +4516,13 @@
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="57"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
       <c r="I24" s="11"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
@@ -4532,13 +4532,13 @@
       <c r="A25" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
       <c r="I25" s="12"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -4546,15 +4546,15 @@
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="72"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="66"/>
       <c r="I26" s="61">
         <v>42754</v>
       </c>
@@ -4566,15 +4566,15 @@
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="72"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="66"/>
       <c r="I27" s="61">
         <v>42754</v>
       </c>
@@ -4586,15 +4586,15 @@
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="70" t="s">
+      <c r="B28" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="72"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="66"/>
       <c r="I28" s="61">
         <v>42754</v>
       </c>
@@ -4606,15 +4606,15 @@
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="64"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="69"/>
       <c r="I29" s="61">
         <v>42754</v>
       </c>
@@ -4626,15 +4626,15 @@
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
-      <c r="B30" s="62" t="s">
+      <c r="B30" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="64"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="69"/>
       <c r="I30" s="61">
         <v>42754</v>
       </c>
@@ -4646,11 +4646,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B17:H17"/>
@@ -4667,14 +4670,11 @@
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="B9:H9"/>
     <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B23:H23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -4705,16 +4705,16 @@
   <sheetData>
     <row r="1" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="82"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80"/>
       <c r="I2" s="15" t="s">
         <v>52</v>
       </c>
@@ -4732,14 +4732,14 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="83"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="76"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="83"/>
       <c r="I3" s="16"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -4765,16 +4765,16 @@
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
       <c r="I5" s="61">
         <v>42754</v>
       </c>
@@ -4785,16 +4785,16 @@
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
       <c r="I6" s="61">
         <v>42754</v>
       </c>
@@ -4805,16 +4805,16 @@
       <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="72"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="66"/>
       <c r="I7" s="61">
         <v>42754</v>
       </c>
@@ -4825,16 +4825,16 @@
       <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
       <c r="I8" s="61">
         <v>42754</v>
       </c>
@@ -4845,16 +4845,16 @@
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="72"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="66"/>
       <c r="I9" s="61">
         <v>42754</v>
       </c>
@@ -4903,16 +4903,16 @@
   <sheetData>
     <row r="1" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="82"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80"/>
       <c r="I2" s="15" t="s">
         <v>52</v>
       </c>
@@ -4930,14 +4930,14 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="83"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="76"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="83"/>
       <c r="I3" s="16"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -4963,16 +4963,16 @@
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="64"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="69"/>
       <c r="I5" s="61">
         <v>42754</v>
       </c>
@@ -4983,16 +4983,16 @@
       <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="64"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="69"/>
       <c r="I6" s="61">
         <v>42754</v>
       </c>
@@ -5003,16 +5003,16 @@
       <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="64"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="69"/>
       <c r="I7" s="61">
         <v>42754</v>
       </c>
@@ -5023,16 +5023,16 @@
       <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="64"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="69"/>
       <c r="I8" s="61">
         <v>42754</v>
       </c>
@@ -5043,16 +5043,16 @@
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="64"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="69"/>
       <c r="I9" s="61">
         <v>42754</v>
       </c>
@@ -5063,16 +5063,16 @@
       <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
       <c r="I10" s="61">
         <v>42754</v>
       </c>
@@ -5083,16 +5083,16 @@
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
       <c r="I11" s="61">
         <v>42754</v>
       </c>
@@ -5127,16 +5127,16 @@
       <c r="O12" s="7"/>
     </row>
     <row r="13" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="76"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="83"/>
       <c r="I13" s="61">
         <v>42754</v>
       </c>
@@ -5169,16 +5169,16 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="76"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="83"/>
       <c r="I15" s="61">
         <v>42754</v>
       </c>
@@ -5190,6 +5190,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A11:H11"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:H4"/>
@@ -5199,11 +5204,6 @@
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A11:H11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -5220,7 +5220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
@@ -5238,15 +5238,15 @@
       <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="78" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="82"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80"/>
       <c r="I2" s="15" t="s">
         <v>52</v>
       </c>
@@ -5265,13 +5265,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="49"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="78"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="87"/>
       <c r="I3" s="16"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -5284,13 +5284,13 @@
       <c r="A4" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="87"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="91"/>
       <c r="I4" s="12"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -5478,15 +5478,15 @@
     </row>
     <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="72"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="66"/>
       <c r="I14" s="61">
         <v>42754</v>
       </c>
@@ -5621,15 +5621,15 @@
       <c r="A22" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="80" t="s">
+      <c r="B22" s="78" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="82"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="80"/>
       <c r="I22" s="21" t="s">
         <v>52</v>
       </c>
@@ -5645,13 +5645,13 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="49"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="78"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="87"/>
       <c r="I23" s="22"/>
       <c r="J23" s="4"/>
       <c r="K23" s="6"/>
@@ -5661,13 +5661,13 @@
       <c r="A24" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="88"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="78"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="87"/>
       <c r="I24" s="23"/>
       <c r="J24" s="2"/>
       <c r="K24" s="6"/>
@@ -5675,15 +5675,15 @@
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="79" t="s">
+      <c r="B25" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
       <c r="I25" s="61">
         <v>42754</v>
       </c>
@@ -5695,15 +5695,15 @@
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="79" t="s">
+      <c r="B26" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
       <c r="I26" s="61">
         <v>42754</v>
       </c>
@@ -5715,15 +5715,15 @@
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="79" t="s">
+      <c r="B27" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
       <c r="I27" s="61">
         <v>42754</v>
       </c>
@@ -5735,15 +5735,15 @@
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="79" t="s">
+      <c r="B28" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
       <c r="I28" s="61">
         <v>42754</v>
       </c>
@@ -5755,15 +5755,15 @@
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-      <c r="B29" s="79" t="s">
+      <c r="B29" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
       <c r="I29" s="61">
         <v>42754</v>
       </c>
@@ -5775,15 +5775,15 @@
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
-      <c r="B30" s="79" t="s">
+      <c r="B30" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
       <c r="I30" s="61">
         <v>42754</v>
       </c>
@@ -5795,15 +5795,15 @@
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
-      <c r="B31" s="79" t="s">
+      <c r="B31" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
       <c r="I31" s="61">
         <v>42754</v>
       </c>
@@ -5815,15 +5815,15 @@
     </row>
     <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
-      <c r="B32" s="79" t="s">
+      <c r="B32" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
       <c r="I32" s="61">
         <v>42754</v>
       </c>
@@ -5835,15 +5835,15 @@
     </row>
     <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
-      <c r="B33" s="79" t="s">
+      <c r="B33" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
       <c r="I33" s="61">
         <v>42754</v>
       </c>
@@ -5895,15 +5895,15 @@
     </row>
     <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
-      <c r="B36" s="89" t="s">
+      <c r="B36" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="89"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="88"/>
+      <c r="H36" s="88"/>
       <c r="I36" s="61">
         <v>42754</v>
       </c>
@@ -5915,15 +5915,15 @@
     </row>
     <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
-      <c r="B37" s="79" t="s">
+      <c r="B37" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="77"/>
       <c r="I37" s="61">
         <v>42754</v>
       </c>
@@ -5935,15 +5935,15 @@
     </row>
     <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
-      <c r="B38" s="79" t="s">
+      <c r="B38" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="77"/>
       <c r="I38" s="61">
         <v>42754</v>
       </c>
@@ -5955,15 +5955,15 @@
     </row>
     <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
-      <c r="B39" s="79" t="s">
+      <c r="B39" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="77"/>
       <c r="I39" s="61">
         <v>42754</v>
       </c>
@@ -5975,15 +5975,15 @@
     </row>
     <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
-      <c r="B40" s="79" t="s">
+      <c r="B40" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
       <c r="I40" s="61">
         <v>42754</v>
       </c>
@@ -5995,15 +5995,15 @@
     </row>
     <row r="41" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
-      <c r="B41" s="79" t="s">
+      <c r="B41" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="79"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
       <c r="I41" s="61">
         <v>42754</v>
       </c>
@@ -6015,15 +6015,15 @@
     </row>
     <row r="42" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
-      <c r="B42" s="79" t="s">
+      <c r="B42" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="79"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="79"/>
-      <c r="H42" s="79"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="77"/>
       <c r="I42" s="61">
         <v>42754</v>
       </c>
@@ -6035,15 +6035,15 @@
     </row>
     <row r="43" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
-      <c r="B43" s="79" t="s">
+      <c r="B43" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="79"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="79"/>
-      <c r="H43" s="79"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
       <c r="I43" s="61">
         <v>42754</v>
       </c>
@@ -6055,15 +6055,15 @@
     </row>
     <row r="44" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
-      <c r="B44" s="79" t="s">
+      <c r="B44" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="79"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="79"/>
-      <c r="H44" s="79"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="77"/>
       <c r="I44" s="61">
         <v>42754</v>
       </c>
@@ -6075,15 +6075,15 @@
     </row>
     <row r="45" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
-      <c r="B45" s="79" t="s">
+      <c r="B45" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="C45" s="79"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="79"/>
-      <c r="F45" s="79"/>
-      <c r="G45" s="79"/>
-      <c r="H45" s="79"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="77"/>
+      <c r="H45" s="77"/>
       <c r="I45" s="61">
         <v>42754</v>
       </c>
@@ -6095,15 +6095,15 @@
     </row>
     <row r="46" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
-      <c r="B46" s="79" t="s">
+      <c r="B46" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="C46" s="79"/>
-      <c r="D46" s="79"/>
-      <c r="E46" s="79"/>
-      <c r="F46" s="79"/>
-      <c r="G46" s="79"/>
-      <c r="H46" s="79"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="77"/>
+      <c r="H46" s="77"/>
       <c r="I46" s="61">
         <v>42754</v>
       </c>
@@ -6115,6 +6115,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
     <mergeCell ref="B45:H45"/>
     <mergeCell ref="B46:H46"/>
     <mergeCell ref="B23:H23"/>
@@ -6131,19 +6144,6 @@
     <mergeCell ref="B30:H30"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -6160,7 +6160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
@@ -6177,15 +6177,15 @@
       <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="92" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="92"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
       <c r="I2" s="15" t="s">
         <v>52</v>
       </c>
@@ -6204,13 +6204,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="51"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
       <c r="I3" s="16"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -6223,13 +6223,13 @@
       <c r="A4" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
       <c r="I4" s="20"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -6237,15 +6237,15 @@
     </row>
     <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
       <c r="I5" s="61">
         <v>42754</v>
       </c>
@@ -6257,15 +6257,15 @@
     </row>
     <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
       <c r="I6" s="61">
         <v>42754</v>
       </c>
@@ -6277,15 +6277,15 @@
     </row>
     <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
       <c r="I7" s="61">
         <v>42754</v>
       </c>
@@ -6297,15 +6297,15 @@
     </row>
     <row r="8" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
       <c r="I8" s="61">
         <v>42754</v>
       </c>
@@ -6317,15 +6317,15 @@
     </row>
     <row r="9" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
       <c r="I9" s="61">
         <v>42754</v>
       </c>
@@ -6337,15 +6337,15 @@
     </row>
     <row r="10" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
       <c r="I10" s="61">
         <v>42754</v>
       </c>
@@ -6357,15 +6357,15 @@
     </row>
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="95" t="s">
+      <c r="B11" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
       <c r="I11" s="61">
         <v>42754</v>
       </c>
@@ -6377,15 +6377,15 @@
     </row>
     <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
       <c r="I12" s="61">
         <v>42754</v>
       </c>
@@ -6397,15 +6397,15 @@
     </row>
     <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="95" t="s">
+      <c r="B13" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
       <c r="I13" s="61">
         <v>42754</v>
       </c>
@@ -6417,15 +6417,15 @@
     </row>
     <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
       <c r="I14" s="61">
         <v>42754</v>
       </c>
@@ -6437,15 +6437,15 @@
     </row>
     <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
       <c r="I15" s="61">
         <v>42754</v>
       </c>
@@ -6457,15 +6457,15 @@
     </row>
     <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
       <c r="I16" s="61">
         <v>42754</v>
       </c>
@@ -6477,15 +6477,15 @@
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
       <c r="I17" s="61">
         <v>42754</v>
       </c>
@@ -6513,15 +6513,15 @@
       <c r="A19" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="80" t="s">
+      <c r="B19" s="78" t="s">
         <v>138</v>
       </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="82"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="80"/>
       <c r="I19" s="32" t="s">
         <v>52</v>
       </c>
@@ -6537,13 +6537,13 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="49"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="78"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="87"/>
       <c r="I20" s="33"/>
       <c r="J20" s="4"/>
       <c r="K20" s="6"/>
@@ -6553,13 +6553,13 @@
       <c r="A21" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="78"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="87"/>
       <c r="I21" s="34"/>
       <c r="J21" s="2"/>
       <c r="K21" s="6"/>
@@ -6567,15 +6567,15 @@
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
-      <c r="B22" s="79" t="s">
+      <c r="B22" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
       <c r="I22" s="61">
         <v>42754</v>
       </c>
@@ -6587,15 +6587,15 @@
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="79" t="s">
+      <c r="B23" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
       <c r="I23" s="61">
         <v>42754</v>
       </c>
@@ -6607,15 +6607,15 @@
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="79" t="s">
+      <c r="B24" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
       <c r="I24" s="61">
         <v>42754</v>
       </c>
@@ -6627,15 +6627,15 @@
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="79" t="s">
+      <c r="B25" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
       <c r="I25" s="61">
         <v>42754</v>
       </c>
@@ -6647,15 +6647,15 @@
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="79" t="s">
+      <c r="B26" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
       <c r="I26" s="61">
         <v>42754</v>
       </c>
@@ -6667,15 +6667,15 @@
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="79" t="s">
+      <c r="B27" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
       <c r="I27" s="61">
         <v>42754</v>
       </c>
@@ -6687,15 +6687,15 @@
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="79" t="s">
+      <c r="B28" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
       <c r="I28" s="61">
         <v>42754</v>
       </c>
@@ -6707,15 +6707,15 @@
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-      <c r="B29" s="79" t="s">
+      <c r="B29" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
       <c r="I29" s="61">
         <v>42754</v>
       </c>
@@ -6727,15 +6727,15 @@
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
-      <c r="B30" s="79" t="s">
+      <c r="B30" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
       <c r="I30" s="61">
         <v>42754</v>
       </c>
@@ -6787,15 +6787,15 @@
     </row>
     <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
-      <c r="B33" s="89" t="s">
+      <c r="B33" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="89"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="88"/>
       <c r="I33" s="61">
         <v>42754</v>
       </c>
@@ -6807,15 +6807,15 @@
     </row>
     <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
-      <c r="B34" s="79" t="s">
+      <c r="B34" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
       <c r="I34" s="61">
         <v>42754</v>
       </c>
@@ -6827,15 +6827,15 @@
     </row>
     <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
-      <c r="B35" s="79" t="s">
+      <c r="B35" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="79"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
       <c r="I35" s="61">
         <v>42754</v>
       </c>
@@ -6847,15 +6847,15 @@
     </row>
     <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
-      <c r="B36" s="79" t="s">
+      <c r="B36" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="C36" s="79"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
       <c r="I36" s="61">
         <v>42754</v>
       </c>
@@ -6867,15 +6867,15 @@
     </row>
     <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
-      <c r="B37" s="79" t="s">
+      <c r="B37" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="77"/>
       <c r="I37" s="61">
         <v>42754</v>
       </c>
@@ -6887,15 +6887,15 @@
     </row>
     <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
-      <c r="B38" s="79" t="s">
+      <c r="B38" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="77"/>
       <c r="I38" s="61">
         <v>42754</v>
       </c>
@@ -6907,15 +6907,15 @@
     </row>
     <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
-      <c r="B39" s="79" t="s">
+      <c r="B39" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="77"/>
       <c r="I39" s="61">
         <v>42754</v>
       </c>
@@ -6927,15 +6927,15 @@
     </row>
     <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
-      <c r="B40" s="79" t="s">
+      <c r="B40" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
       <c r="I40" s="61">
         <v>42754</v>
       </c>
@@ -6947,15 +6947,15 @@
     </row>
     <row r="41" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
-      <c r="B41" s="79" t="s">
+      <c r="B41" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="79"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
       <c r="I41" s="61">
         <v>42754</v>
       </c>
@@ -6967,15 +6967,15 @@
     </row>
     <row r="42" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
-      <c r="B42" s="79" t="s">
+      <c r="B42" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="C42" s="79"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="79"/>
-      <c r="H42" s="79"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="77"/>
       <c r="I42" s="61">
         <v>42754</v>
       </c>
@@ -6987,15 +6987,15 @@
     </row>
     <row r="43" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
-      <c r="B43" s="79" t="s">
+      <c r="B43" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="C43" s="79"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="79"/>
-      <c r="H43" s="79"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
       <c r="I43" s="61">
         <v>42754</v>
       </c>
@@ -7007,6 +7007,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
     <mergeCell ref="B43:H43"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
@@ -7023,31 +7048,6 @@
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B41:H41"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -7064,7 +7064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
@@ -7082,14 +7082,14 @@
       <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="92" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="92"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="94"/>
       <c r="H2" s="55" t="s">
         <v>52</v>
       </c>
@@ -7108,12 +7108,12 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="51"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
       <c r="H3" s="53"/>
       <c r="I3" s="54"/>
       <c r="J3" s="54"/>
@@ -7126,12 +7126,12 @@
       <c r="A4" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
       <c r="H4" s="19"/>
       <c r="I4" s="4"/>
       <c r="J4" s="6"/>
@@ -7139,14 +7139,14 @@
     </row>
     <row r="5" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
       <c r="H5" s="61">
         <v>42754</v>
       </c>
@@ -7158,14 +7158,14 @@
     </row>
     <row r="6" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
       <c r="H6" s="61">
         <v>42754</v>
       </c>
@@ -7177,14 +7177,14 @@
     </row>
     <row r="7" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
       <c r="H7" s="61">
         <v>42754</v>
       </c>
@@ -7196,14 +7196,14 @@
     </row>
     <row r="8" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
       <c r="H8" s="61">
         <v>42754</v>
       </c>
@@ -7215,14 +7215,14 @@
     </row>
     <row r="9" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
       <c r="H9" s="61">
         <v>42754</v>
       </c>
@@ -7234,14 +7234,14 @@
     </row>
     <row r="10" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
       <c r="H10" s="61">
         <v>42754</v>
       </c>
@@ -7253,14 +7253,14 @@
     </row>
     <row r="11" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
       <c r="H11" s="61">
         <v>42754</v>
       </c>
@@ -7272,14 +7272,14 @@
     </row>
     <row r="12" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
       <c r="H12" s="61">
         <v>42754</v>
       </c>
@@ -7291,14 +7291,14 @@
     </row>
     <row r="13" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
       <c r="H13" s="61">
         <v>42754</v>
       </c>
@@ -7310,14 +7310,14 @@
     </row>
     <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
       <c r="H14" s="61">
         <v>42754</v>
       </c>
@@ -7329,14 +7329,14 @@
     </row>
     <row r="15" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
       <c r="H15" s="61">
         <v>42754</v>
       </c>
@@ -7348,14 +7348,14 @@
     </row>
     <row r="16" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
       <c r="H16" s="61">
         <v>42754</v>
       </c>
@@ -7367,14 +7367,14 @@
     </row>
     <row r="17" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
       <c r="H17" s="61">
         <v>42754</v>
       </c>
@@ -7386,14 +7386,14 @@
     </row>
     <row r="18" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
-      <c r="B18" s="79" t="s">
+      <c r="B18" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
       <c r="H18" s="61">
         <v>42754</v>
       </c>
@@ -7408,14 +7408,14 @@
       <c r="A20" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="90" t="s">
+      <c r="B20" s="92" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="92"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="94"/>
       <c r="H20" s="60" t="s">
         <v>52</v>
       </c>
@@ -7431,13 +7431,13 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="51"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="98"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="63"/>
       <c r="I21" s="54"/>
       <c r="J21" s="18"/>
       <c r="K21" s="54"/>
@@ -7446,12 +7446,12 @@
       <c r="A22" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="88"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="34"/>
       <c r="I22" s="2"/>
       <c r="J22" s="6"/>
@@ -7459,14 +7459,14 @@
     </row>
     <row r="23" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="79" t="s">
+      <c r="B23" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
       <c r="H23" s="61">
         <v>42754</v>
       </c>
@@ -7478,14 +7478,14 @@
     </row>
     <row r="24" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="79" t="s">
+      <c r="B24" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
       <c r="H24" s="61">
         <v>42754</v>
       </c>
@@ -7497,14 +7497,14 @@
     </row>
     <row r="25" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="79" t="s">
+      <c r="B25" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
       <c r="H25" s="61">
         <v>42754</v>
       </c>
@@ -7516,14 +7516,14 @@
     </row>
     <row r="26" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="79" t="s">
+      <c r="B26" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
       <c r="H26" s="61">
         <v>42754</v>
       </c>
@@ -7535,14 +7535,14 @@
     </row>
     <row r="27" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="79" t="s">
+      <c r="B27" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
       <c r="H27" s="61">
         <v>42754</v>
       </c>
@@ -7554,14 +7554,14 @@
     </row>
     <row r="28" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="79" t="s">
+      <c r="B28" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
       <c r="H28" s="61">
         <v>42754</v>
       </c>
@@ -7573,14 +7573,14 @@
     </row>
     <row r="29" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-      <c r="B29" s="79" t="s">
+      <c r="B29" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
       <c r="H29" s="61">
         <v>42754</v>
       </c>
@@ -7592,14 +7592,14 @@
     </row>
     <row r="30" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
-      <c r="B30" s="79" t="s">
+      <c r="B30" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
       <c r="H30" s="61">
         <v>42754</v>
       </c>
@@ -7611,14 +7611,14 @@
     </row>
     <row r="31" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
-      <c r="B31" s="79" t="s">
+      <c r="B31" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
       <c r="H31" s="61">
         <v>42754</v>
       </c>
@@ -7668,14 +7668,14 @@
     </row>
     <row r="34" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
-      <c r="B34" s="89" t="s">
+      <c r="B34" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="89"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
       <c r="H34" s="61">
         <v>42754</v>
       </c>
@@ -7687,14 +7687,14 @@
     </row>
     <row r="35" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
-      <c r="B35" s="79" t="s">
+      <c r="B35" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
       <c r="H35" s="61">
         <v>42754</v>
       </c>
@@ -7706,14 +7706,14 @@
     </row>
     <row r="36" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
-      <c r="B36" s="79" t="s">
+      <c r="B36" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="79"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
       <c r="H36" s="61">
         <v>42754</v>
       </c>
@@ -7725,14 +7725,14 @@
     </row>
     <row r="37" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
-      <c r="B37" s="79" t="s">
+      <c r="B37" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
       <c r="H37" s="61">
         <v>42754</v>
       </c>
@@ -7744,14 +7744,14 @@
     </row>
     <row r="38" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
-      <c r="B38" s="79" t="s">
+      <c r="B38" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
       <c r="H38" s="61">
         <v>42754</v>
       </c>
@@ -7763,14 +7763,14 @@
     </row>
     <row r="39" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
-      <c r="B39" s="79" t="s">
+      <c r="B39" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="79"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
       <c r="H39" s="61">
         <v>42754</v>
       </c>
@@ -7782,14 +7782,14 @@
     </row>
     <row r="40" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
-      <c r="B40" s="79" t="s">
+      <c r="B40" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
       <c r="H40" s="61">
         <v>42754</v>
       </c>
@@ -7801,14 +7801,14 @@
     </row>
     <row r="41" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
-      <c r="B41" s="79" t="s">
+      <c r="B41" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
       <c r="H41" s="61">
         <v>42754</v>
       </c>
@@ -7820,14 +7820,14 @@
     </row>
     <row r="42" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
-      <c r="B42" s="79" t="s">
+      <c r="B42" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="79"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="79"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="77"/>
       <c r="H42" s="61">
         <v>42754</v>
       </c>
@@ -7839,14 +7839,14 @@
     </row>
     <row r="43" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
-      <c r="B43" s="79" t="s">
+      <c r="B43" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="79"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="79"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
       <c r="H43" s="61">
         <v>42754</v>
       </c>
@@ -7858,14 +7858,14 @@
     </row>
     <row r="44" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
-      <c r="B44" s="79" t="s">
+      <c r="B44" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="C44" s="79"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="79"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="77"/>
       <c r="H44" s="61">
         <v>42754</v>
       </c>
@@ -7877,6 +7877,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B43:G43"/>
     <mergeCell ref="B44:G44"/>
@@ -7893,32 +7919,6 @@
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -7935,7 +7935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
@@ -7956,13 +7956,13 @@
       <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
       <c r="I2" s="47" t="s">
         <v>52</v>
       </c>
@@ -7981,13 +7981,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="51"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
       <c r="I3" s="53"/>
       <c r="J3" s="54"/>
       <c r="K3" s="54"/>
@@ -8000,13 +8000,13 @@
       <c r="A4" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
       <c r="I4" s="19"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -8014,15 +8014,15 @@
     </row>
     <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="76" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
       <c r="I5" s="61">
         <v>42754</v>
       </c>
@@ -8034,15 +8034,15 @@
     </row>
     <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="76" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
       <c r="I6" s="61">
         <v>42754</v>
       </c>
@@ -8054,15 +8054,15 @@
     </row>
     <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
       <c r="I7" s="61">
         <v>42754</v>
       </c>
@@ -8074,15 +8074,15 @@
     </row>
     <row r="8" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="28"/>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
       <c r="I8" s="61">
         <v>42754</v>
       </c>
@@ -8094,15 +8094,15 @@
     </row>
     <row r="9" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="28"/>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
       <c r="I9" s="61">
         <v>42754</v>
       </c>
@@ -8114,15 +8114,15 @@
     </row>
     <row r="10" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="28"/>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
       <c r="I10" s="61">
         <v>42754</v>
       </c>
@@ -8134,15 +8134,15 @@
     </row>
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
       <c r="I11" s="61">
         <v>42754</v>
       </c>
@@ -8154,15 +8154,15 @@
     </row>
     <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
       <c r="I12" s="61">
         <v>42754</v>
       </c>
@@ -8174,15 +8174,15 @@
     </row>
     <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
       <c r="I13" s="61">
         <v>42754</v>
       </c>
@@ -8194,15 +8194,15 @@
     </row>
     <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
       <c r="I14" s="61">
         <v>42754</v>
       </c>
@@ -8217,15 +8217,15 @@
       <c r="A16" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="78" t="s">
         <v>138</v>
       </c>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="82"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="80"/>
       <c r="I16" s="32" t="s">
         <v>52</v>
       </c>
@@ -8241,13 +8241,13 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="49"/>
-      <c r="B17" s="88"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="78"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="87"/>
       <c r="I17" s="33"/>
       <c r="J17" s="4"/>
       <c r="K17" s="6"/>
@@ -8257,13 +8257,13 @@
       <c r="A18" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="88"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="78"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="87"/>
       <c r="I18" s="34"/>
       <c r="J18" s="2"/>
       <c r="K18" s="6"/>
@@ -8271,15 +8271,15 @@
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
       <c r="I19" s="61">
         <v>42754</v>
       </c>
@@ -8291,15 +8291,15 @@
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
-      <c r="B20" s="79" t="s">
+      <c r="B20" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
       <c r="I20" s="61">
         <v>42754</v>
       </c>
@@ -8311,15 +8311,15 @@
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
-      <c r="B21" s="79" t="s">
+      <c r="B21" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
       <c r="I21" s="61">
         <v>42754</v>
       </c>
@@ -8331,15 +8331,15 @@
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
-      <c r="B22" s="79" t="s">
+      <c r="B22" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
       <c r="I22" s="61">
         <v>42754</v>
       </c>
@@ -8351,15 +8351,15 @@
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="79" t="s">
+      <c r="B23" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
       <c r="I23" s="61">
         <v>42754</v>
       </c>
@@ -8371,15 +8371,15 @@
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="79" t="s">
+      <c r="B24" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
       <c r="I24" s="61">
         <v>42754</v>
       </c>
@@ -8391,15 +8391,15 @@
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="79" t="s">
+      <c r="B25" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
       <c r="I25" s="61">
         <v>42754</v>
       </c>
@@ -8411,15 +8411,15 @@
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="79" t="s">
+      <c r="B26" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
       <c r="I26" s="61">
         <v>42754</v>
       </c>
@@ -8431,15 +8431,15 @@
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="79" t="s">
+      <c r="B27" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
       <c r="I27" s="61">
         <v>42754</v>
       </c>
@@ -8491,15 +8491,15 @@
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
-      <c r="B30" s="89" t="s">
+      <c r="B30" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="89"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="89"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
       <c r="I30" s="61">
         <v>42754</v>
       </c>
@@ -8511,15 +8511,15 @@
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
-      <c r="B31" s="79" t="s">
+      <c r="B31" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
       <c r="I31" s="61">
         <v>42754</v>
       </c>
@@ -8531,15 +8531,15 @@
     </row>
     <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
-      <c r="B32" s="79" t="s">
+      <c r="B32" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
       <c r="I32" s="61">
         <v>42754</v>
       </c>
@@ -8551,15 +8551,15 @@
     </row>
     <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
-      <c r="B33" s="79" t="s">
+      <c r="B33" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
       <c r="I33" s="61">
         <v>42754</v>
       </c>
@@ -8571,15 +8571,15 @@
     </row>
     <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
-      <c r="B34" s="79" t="s">
+      <c r="B34" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
       <c r="I34" s="61">
         <v>42754</v>
       </c>
@@ -8591,15 +8591,15 @@
     </row>
     <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
-      <c r="B35" s="79" t="s">
+      <c r="B35" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="79"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
       <c r="I35" s="61">
         <v>42754</v>
       </c>
@@ -8611,15 +8611,15 @@
     </row>
     <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
-      <c r="B36" s="79" t="s">
+      <c r="B36" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="79"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
       <c r="I36" s="61">
         <v>42754</v>
       </c>
@@ -8631,15 +8631,15 @@
     </row>
     <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
-      <c r="B37" s="79" t="s">
+      <c r="B37" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="77"/>
       <c r="I37" s="61">
         <v>42754</v>
       </c>
@@ -8651,15 +8651,15 @@
     </row>
     <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
-      <c r="B38" s="79" t="s">
+      <c r="B38" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="77"/>
       <c r="I38" s="61">
         <v>42754</v>
       </c>
@@ -8671,15 +8671,15 @@
     </row>
     <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
-      <c r="B39" s="79" t="s">
+      <c r="B39" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="77"/>
       <c r="I39" s="61">
         <v>42754</v>
       </c>
@@ -8691,15 +8691,15 @@
     </row>
     <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
-      <c r="B40" s="79" t="s">
+      <c r="B40" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
       <c r="I40" s="61">
         <v>42754</v>
       </c>
@@ -8711,6 +8711,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B40:H40"/>
     <mergeCell ref="B2:H2"/>
@@ -8727,28 +8749,6 @@
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B34:H34"/>
     <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -8765,7 +8765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
@@ -8782,15 +8782,15 @@
       <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="92" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="92"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
       <c r="I2" s="47" t="s">
         <v>52</v>
       </c>
@@ -8809,13 +8809,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="51"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
       <c r="I3" s="53"/>
       <c r="J3" s="54"/>
       <c r="K3" s="54"/>
@@ -8828,13 +8828,13 @@
       <c r="A4" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
       <c r="I4" s="16"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -8842,15 +8842,15 @@
     </row>
     <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
       <c r="I5" s="61">
         <v>42754</v>
       </c>
@@ -8862,15 +8862,15 @@
     </row>
     <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
       <c r="I6" s="61">
         <v>42754</v>
       </c>
@@ -8882,15 +8882,15 @@
     </row>
     <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
       <c r="I7" s="61">
         <v>42754</v>
       </c>
@@ -8902,15 +8902,15 @@
     </row>
     <row r="8" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
       <c r="I8" s="61">
         <v>42754</v>
       </c>
@@ -8922,15 +8922,15 @@
     </row>
     <row r="9" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
       <c r="I9" s="61">
         <v>42754</v>
       </c>
@@ -8942,15 +8942,15 @@
     </row>
     <row r="10" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
       <c r="I10" s="61">
         <v>42754</v>
       </c>
@@ -8962,15 +8962,15 @@
     </row>
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
       <c r="I11" s="61">
         <v>42754</v>
       </c>
@@ -8985,15 +8985,15 @@
       <c r="A13" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="78" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="82"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="80"/>
       <c r="I13" s="32" t="s">
         <v>52</v>
       </c>
@@ -9009,13 +9009,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="49"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="78"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="87"/>
       <c r="I14" s="33"/>
       <c r="J14" s="4"/>
       <c r="K14" s="6"/>
@@ -9025,13 +9025,13 @@
       <c r="A15" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="78"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="87"/>
       <c r="I15" s="34"/>
       <c r="J15" s="2"/>
       <c r="K15" s="6"/>
@@ -9039,15 +9039,15 @@
     </row>
     <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
       <c r="I16" s="61">
         <v>42754</v>
       </c>
@@ -9059,15 +9059,15 @@
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
       <c r="I17" s="61">
         <v>42754</v>
       </c>
@@ -9079,15 +9079,15 @@
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
-      <c r="B18" s="79" t="s">
+      <c r="B18" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
       <c r="I18" s="61">
         <v>42754</v>
       </c>
@@ -9099,15 +9099,15 @@
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
       <c r="I19" s="61">
         <v>42754</v>
       </c>
@@ -9119,15 +9119,15 @@
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
-      <c r="B20" s="79" t="s">
+      <c r="B20" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
       <c r="I20" s="61">
         <v>42754</v>
       </c>
@@ -9139,15 +9139,15 @@
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
-      <c r="B21" s="79" t="s">
+      <c r="B21" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
       <c r="I21" s="61">
         <v>42754</v>
       </c>
@@ -9159,15 +9159,15 @@
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
-      <c r="B22" s="79" t="s">
+      <c r="B22" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
       <c r="I22" s="61">
         <v>42754</v>
       </c>
@@ -9179,15 +9179,15 @@
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="79" t="s">
+      <c r="B23" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
       <c r="I23" s="61">
         <v>42754</v>
       </c>
@@ -9199,15 +9199,15 @@
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="79" t="s">
+      <c r="B24" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
       <c r="I24" s="61">
         <v>42754</v>
       </c>
@@ -9259,15 +9259,15 @@
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="89" t="s">
+      <c r="B27" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="89"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="88"/>
       <c r="I27" s="61">
         <v>42754</v>
       </c>
@@ -9279,15 +9279,15 @@
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="79" t="s">
+      <c r="B28" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
       <c r="I28" s="61">
         <v>42754</v>
       </c>
@@ -9299,15 +9299,15 @@
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-      <c r="B29" s="79" t="s">
+      <c r="B29" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
       <c r="I29" s="61">
         <v>42754</v>
       </c>
@@ -9319,15 +9319,15 @@
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
-      <c r="B30" s="79" t="s">
+      <c r="B30" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
       <c r="I30" s="61">
         <v>42754</v>
       </c>
@@ -9339,15 +9339,15 @@
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
-      <c r="B31" s="79" t="s">
+      <c r="B31" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
       <c r="I31" s="61">
         <v>42754</v>
       </c>
@@ -9359,15 +9359,15 @@
     </row>
     <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
-      <c r="B32" s="79" t="s">
+      <c r="B32" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
       <c r="I32" s="61">
         <v>42754</v>
       </c>
@@ -9379,15 +9379,15 @@
     </row>
     <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
-      <c r="B33" s="79" t="s">
+      <c r="B33" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
       <c r="I33" s="61">
         <v>42754</v>
       </c>
@@ -9399,15 +9399,15 @@
     </row>
     <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
-      <c r="B34" s="79" t="s">
+      <c r="B34" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
       <c r="I34" s="61">
         <v>42754</v>
       </c>
@@ -9419,15 +9419,15 @@
     </row>
     <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
-      <c r="B35" s="79" t="s">
+      <c r="B35" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="79"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
       <c r="I35" s="61">
         <v>42754</v>
       </c>
@@ -9439,15 +9439,15 @@
     </row>
     <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
-      <c r="B36" s="79" t="s">
+      <c r="B36" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="79"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
       <c r="I36" s="61">
         <v>42754</v>
       </c>
@@ -9459,15 +9459,15 @@
     </row>
     <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
-      <c r="B37" s="79" t="s">
+      <c r="B37" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="77"/>
       <c r="I37" s="61">
         <v>42754</v>
       </c>
@@ -9479,6 +9479,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
     <mergeCell ref="B36:H36"/>
     <mergeCell ref="B37:H37"/>
     <mergeCell ref="B3:H3"/>
@@ -9495,25 +9514,6 @@
     <mergeCell ref="B33:H33"/>
     <mergeCell ref="B34:H34"/>
     <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
